--- a/data/trans_bre/P20D2_R_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Habitat-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-44.01462356631192</v>
+        <v>-44.01462356631195</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.5966442165637529</v>
+        <v>-0.5966442165637531</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-69.77041285574114</v>
+        <v>-71.12917049837606</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.8466528402126712</v>
+        <v>-0.8616341090506251</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.83787862368216</v>
+        <v>-11.14929188327916</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-0.1750176474772356</v>
+        <v>-0.1993735712058214</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-37.00492636147572</v>
+        <v>-42.06048569328368</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5072638721768169</v>
+        <v>-0.5495573321932041</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>34.81231677300502</v>
+        <v>31.66607805452282</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.02939965805721</v>
+        <v>0.7815883052140539</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-59.66488873673585</v>
+        <v>-61.70569402922105</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.7494038653199168</v>
+        <v>-0.7541504942003739</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.76628360879535</v>
+        <v>10.6956200145209</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.2472429998933014</v>
+        <v>0.2049903455253884</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-44.45889454353148</v>
+        <v>-44.45889454353147</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>-0.5777645320175842</v>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-64.40917154354167</v>
+        <v>-66.16517221859219</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7719515273328613</v>
+        <v>-0.7736688177403802</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-22.00833758586819</v>
+        <v>-19.43964248983318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3149195267981111</v>
+        <v>-0.2941025337364814</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-31.09355920023884</v>
+        <v>-31.09355920023885</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>-0.43299870539004</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-46.27716417408939</v>
+        <v>-44.99937950378052</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.6046898080060497</v>
+        <v>-0.5913017563305142</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-13.8771835829616</v>
+        <v>-11.74357051647178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-0.2106427779026729</v>
+        <v>-0.1731845288358201</v>
       </c>
     </row>
     <row r="19">
